--- a/data/timeslices_cf_af_calculation.xlsx
+++ b/data/timeslices_cf_af_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0B16C-FD77-43F4-8258-97A3BADA395F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEACCFB-FC58-47DC-80B5-B3BBFD9E2E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="1755" windowWidth="21600" windowHeight="11325" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
+    <workbookView xWindow="28140" yWindow="3300" windowWidth="21600" windowHeight="11325" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
   <sheets>
     <sheet name="New_COMFR" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>SDW</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>PWS</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D3164-A650-4B5B-ACF1-A79955CD405D}">
-  <dimension ref="A3:N25"/>
+  <dimension ref="A3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M23:M25"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L5:L11" si="3">K11*F11</f>
+        <f t="shared" ref="L11" si="3">K11*F11</f>
         <v>0</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -853,9 +856,11 @@
       <c r="M16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -880,8 +885,12 @@
         <f>K17/$I$12</f>
         <v>0.70000000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <f>M17*$I$12</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -910,8 +919,12 @@
         <f>K18/$I$12</f>
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <f t="shared" ref="N18:N20" si="5">M18*$I$12</f>
+        <v>0.14280000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="E19">
         <v>0.4</v>
@@ -934,8 +947,12 @@
         <f>K19/$I$12</f>
         <v>0.73542000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0.14708400000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="E20">
         <v>0.45</v>
@@ -948,7 +965,7 @@
         <v>2035</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20" si="5">K19*(1+(L20-L19))</f>
+        <f t="shared" ref="K20" si="6">K19*(1+(L20-L19))</f>
         <v>0.15443820000000003</v>
       </c>
       <c r="L20">
@@ -958,8 +975,12 @@
         <f>K20/$I$12</f>
         <v>0.77219100000000007</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0.15443820000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="E21">
         <v>0.5</v>
@@ -969,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="K22" s="4" t="s">
         <v>13</v>
@@ -980,8 +1001,11 @@
       <c r="M22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K23">
         <v>0.21</v>
       </c>
@@ -992,34 +1016,80 @@
         <f>K23/$L$12</f>
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <f>M23*$L$12</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K24">
-        <f>K23*(1+(L24-L23))</f>
+        <f>$K$23*(1+(L24-$L$23))</f>
         <v>0.23100000000000001</v>
       </c>
       <c r="L24" s="3">
         <v>0.25</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M25" si="6">K24/$L$12</f>
+        <f t="shared" ref="M24:M27" si="7">K24/$L$12</f>
         <v>0.57750000000000012</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <f t="shared" ref="N24:N27" si="8">M24*$L$12</f>
+        <v>0.23100000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K25">
-        <f>K24*(1+(L25-L24))</f>
-        <v>0.19635</v>
+        <f t="shared" ref="K25:K26" si="9">$K$23*(1+(L25-$L$23))</f>
+        <v>0.19949999999999998</v>
       </c>
       <c r="L25">
         <v>0.1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
-        <v>0.49087500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.49874999999999997</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>0.19949999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0.20679120000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.13472000000000001</v>
+      </c>
+      <c r="M26">
+        <f>K26/$L$12</f>
+        <v>0.51697800000000005</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>0.20679120000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f>K23*(1+(L27-L23))</f>
+        <v>0.21346499999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>0.53366250000000004</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>0.21346499999999999</v>
       </c>
     </row>
   </sheetData>
